--- a/sd-MS-availabletime-healthcareservice/ig/StructureDefinition-ror-location-equipment.xlsx
+++ b/sd-MS-availabletime-healthcareservice/ig/StructureDefinition-ror-location-equipment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T10:53:49+00:00</t>
+    <t>2024-02-09T11:04:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
